--- a/biology/Zoologie/Elateridae/Elateridae.xlsx
+++ b/biology/Zoologie/Elateridae/Elateridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les élatéridés forment une famille de coléoptères qui correspond aux taupins. Cette famille comprend plus de 7 000 espèces. De forme allongée ils ont pour caractéristique de sauter en l'air pour se remettre sur leurs pattes lorsqu'ils sont placés sur le dos. Les larves de cette famille, allongées et cylindriques, dites « Vers fil de fer » sont phytophages ou carnivores. Elles vivent dans le bois pourri ou dans le sol[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les élatéridés forment une famille de coléoptères qui correspond aux taupins. Cette famille comprend plus de 7 000 espèces. De forme allongée ils ont pour caractéristique de sauter en l'air pour se remettre sur leurs pattes lorsqu'ils sont placés sur le dos. Les larves de cette famille, allongées et cylindriques, dites « Vers fil de fer » sont phytophages ou carnivores. Elles vivent dans le bois pourri ou dans le sol.
 </t>
         </is>
       </c>
@@ -511,13 +523,84 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette famille a été décrite par le naturaliste anglais William Elford Leach en 1815.
-Synonymie
-Cebrionidae
-Taxinomie
-Cette famille est partagée en différentes sous-familles :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été décrite par le naturaliste anglais William Elford Leach en 1815.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elateridae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elateridae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cebrionidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elateridae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elateridae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette famille est partagée en différentes sous-familles :
 Agrypninae,
 Anischiinae,
 Aplastinae,
